--- a/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
+++ b/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,19 +871,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.37, time:2377.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>

--- a/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
+++ b/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,26 +871,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  5, Val_loss:  2.35, time:8577.76, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  4, Val_loss:  2.36, time:8253.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.37, time:2377.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>

--- a/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
+++ b/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,40 +871,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.35, time:8577.76, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  9, Val_loss:  2.34, time:15380.96, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.36, time:8253.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  8, Val_loss:  2.35, time:16595.30, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  7, Val_loss:  2.35, time:15921.61, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  6, Val_loss:  2.35, time:14140.20, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  5, Val_loss:  2.35, time:8577.76, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  2.36, time:8253.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.37, time:2377.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>

--- a/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
+++ b/TrueAug_SymDiGCN_WikiCS12-31-11:03:19_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,68 +871,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  2.34, time:15380.96, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch: 10, Val_loss:  2.34, time:14932.08, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  2.35, time:16595.30, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  9, Val_loss:  2.34, time:15380.96, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  2.35, time:15921.61, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  8, Val_loss:  2.35, time:16595.30, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  2.35, time:14140.20, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  7, Val_loss:  2.35, time:15921.61, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.35, time:8577.76, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  6, Val_loss:  2.35, time:14140.20, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.36, time:8253.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  5, Val_loss:  2.35, time:8577.76, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  4, Val_loss:  2.36, time:8253.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  3, Val_loss:  2.36, time:3798.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+          <t>Epoch:  2, Val_loss:  2.36, time:2989.69, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.37, time:2379.16, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.37, time:2377.40, test_Acc:  16.52, test_bacc:  10.00, test_f1:   2.84</t>
         </is>
